--- a/04 - Analyse & Conception/Listes_E_S_UsineDeTri_PRI_PROJET-IEC61499_V0_1.xlsx
+++ b/04 - Analyse & Conception/Listes_E_S_UsineDeTri_PRI_PROJET-IEC61499_V0_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damienlorigeon/Documents/Polytech/5A/PRI/PRI-IEC61499-UniversalAutomation/04 - Analyse &amp; Conception/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC344162-0F39-BC47-BCBB-FF78364B9046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EFE9CC-8735-434E-9064-679F49A3D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="620" windowWidth="28040" windowHeight="15740" xr2:uid="{615C8FA3-7A25-874E-8DE4-B37DBC7D11AC}"/>
+    <workbookView xWindow="380" yWindow="620" windowWidth="28040" windowHeight="15740" activeTab="1" xr2:uid="{615C8FA3-7A25-874E-8DE4-B37DBC7D11AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Capteurs" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020B4BA0-8418-724D-B521-29CFB398DE99}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A786B6-0A41-7847-ACE2-12627EEEC095}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="A16" sqref="A5:A16"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/04 - Analyse & Conception/Listes_E_S_UsineDeTri_PRI_PROJET-IEC61499_V0_1.xlsx
+++ b/04 - Analyse & Conception/Listes_E_S_UsineDeTri_PRI_PROJET-IEC61499_V0_1.xlsx
@@ -1063,4 +1063,169 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E515E1E2CF8004C99C95607B9652EE2" ma:contentTypeVersion="3" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="084f4a7ec9dcaa2bb00e9bf849c8b8c0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d516c02-b9f1-42d8-97df-19f84f27208b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7054e435ea20f94c9eab621631aa2029" ns2:_="">
+    <xsd:import namespace="8d516c02-b9f1-42d8-97df-19f84f27208b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8d516c02-b9f1-42d8-97df-19f84f27208b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A990364B-D959-4749-B803-C2AB5392ECB7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B71736-31BB-4D32-A3DB-E089CAADFD34}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAA0018C-E184-47C1-A7EC-278064835E95}"/>
 </file>